--- a/Upload Data/Mock Exam/Test 1/test1-part6.xlsx
+++ b/Upload Data/Mock Exam/Test 1/test1-part6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PBL5\Upload Data\Mock Exam\Test 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9B8225-88E8-4226-B7EA-38DB3071EFC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60887EF7-C27F-47E0-BF58-636AEE01C32F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -342,17 +342,17 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -636,7 +636,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -672,346 +672,346 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="5"/>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="6"/>
+      <c r="B7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="5"/>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="6"/>
+      <c r="B8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="5"/>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="6"/>
+      <c r="B9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="5"/>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="6"/>
+      <c r="B11" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="5"/>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="6"/>
+      <c r="B12" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="5"/>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="6"/>
+      <c r="B13" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="333.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="5"/>
+      <c r="B15" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
-      <c r="B16" s="6" t="s">
+      <c r="A16" s="5"/>
+      <c r="B16" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
-      <c r="B17" s="6" t="s">
+      <c r="A17" s="5"/>
+      <c r="B17" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="4" t="s">
         <v>12</v>
       </c>
     </row>
